--- a/DB/DB임시파일2.xlsx
+++ b/DB/DB임시파일2.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1421">
   <si>
     <t>회원번호</t>
   </si>
@@ -5133,10 +5133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1회 시범 공모전 결과 발표입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제2회 시범 공모전)) 16강 대진 발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5161,7 +5157,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>안녕하세요 신인 루키 작가님들! \n 넘치는 재능을 뽐낼 곳을 찾고 계시다구요? \n 퍼북 공모전에 작품을 출품하세요! \n 저희는 유명 웹툰, 드라마, 영화제작사와의 협조로 MSOU 또한 준비중에 있다구요. \n 7월 15일까지 출품작과 서류를 받고 있으니 꼭 확인해서 저희에게 보내주세요! \n 면밀히 검토하여 뽑은 16개의 소설이 토너먼트로 독자님들의 선택을 받게됩니다. \n 독자님들께는 소중하고 깨끗한 한표 부탁드릴께요~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 시범 공모전 16강입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 시범 공모전 8강입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 시범 공모전 4강입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 시범 공모전 준결승입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 시범 공모전 결승입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 시범 공모전 결승 결과 발표입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회 시범 공모전 결승 결과 발표입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice18</t>
+  </si>
+  <si>
+    <t>notice19</t>
+  </si>
+  <si>
+    <t>notice20</t>
+  </si>
+  <si>
+    <t>notice21</t>
+  </si>
+  <si>
+    <t>notice22</t>
+  </si>
+  <si>
+    <t>notice23</t>
+  </si>
+  <si>
+    <t>notice24</t>
+  </si>
+  <si>
+    <t>제3회 분기별 공모전)) 16강 대진 발표</t>
+  </si>
+  <si>
+    <t>제3회 분기별 공모전)) 8강 대진 발표</t>
+  </si>
+  <si>
+    <t>제3회 분기별 공모전)) 4강 대진 발표</t>
+  </si>
+  <si>
+    <t>제3회 분기별 공모전)) 준결승! 대진 발표</t>
+  </si>
+  <si>
+    <t>제3회 분기별 공모전)) 결승!!!! 대진 발표</t>
+  </si>
+  <si>
+    <t>제3회 분기별 공모전)) 대망의 결승 결과 발표</t>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 출품작 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 16강 대진 발표`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 8강 대진 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 4강 대진 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 준결승! 대진 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 결승!!!! 대진 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 분기별 공모전)) 대망의 결승 결과 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice25</t>
+  </si>
+  <si>
+    <t>notice26</t>
+  </si>
+  <si>
+    <t>notice27</t>
+  </si>
+  <si>
+    <t>notice28</t>
+  </si>
+  <si>
+    <t>notice29</t>
+  </si>
+  <si>
+    <t>notice30</t>
+  </si>
+  <si>
+    <t>notice31</t>
+  </si>
+  <si>
+    <t>안녕하세요 신인 루키 작가님들! \n 넘치는 재능을 뽐낼 곳을 찾고 계시다구요? \n 퍼북 공모전에 작품을 출품하세요! \n 저희는 유명 웹툰, 드라마, 영화제작사와의 협조로 MSOU 또한 준비중에 있다구요. \n 7월 15일까지 출품작과 서류를 받고 있으니 꼭 확인해서 저희에게 보내주세요! \n 면밀히 검토하여 뽑은 16개의 소설이 토너먼트로 독자님들의 선택을 받게됩니다. \n 독자님들께는 소중하고 깨끗한 한표 부탁드릴께요~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 분기별 공모전 16강입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 분기별 공모전 8강입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 분기별 공모전 4강입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>제3회 분기별 공모전)) 출품작 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 분기별 공모전 준결승입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 분기별 공모전 결승입니다!! 자세한 사항은 대진표를 참고해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8702,10 +8842,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8902,7 +9042,7 @@
         <v>1360</v>
       </c>
       <c r="E13" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8916,7 +9056,7 @@
         <v>1366</v>
       </c>
       <c r="E14" t="s">
-        <v>1368</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8927,10 +9067,10 @@
         <v>44027</v>
       </c>
       <c r="C15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E15" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8941,10 +9081,10 @@
         <v>44044</v>
       </c>
       <c r="C16" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E16" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8955,10 +9095,10 @@
         <v>44058</v>
       </c>
       <c r="C17" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E17" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8969,10 +9109,10 @@
         <v>44075</v>
       </c>
       <c r="C18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E18" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8980,13 +9120,13 @@
         <v>484</v>
       </c>
       <c r="B19" s="2">
-        <v>43617</v>
+        <v>44089</v>
       </c>
       <c r="C19" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E19" t="s">
-        <v>1368</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8994,48 +9134,170 @@
         <v>485</v>
       </c>
       <c r="B20" s="2">
-        <v>43621</v>
+        <v>44104</v>
       </c>
       <c r="C20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E21" t="s">
         <v>1379</v>
       </c>
-      <c r="E20" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E29" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>1379</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1386</v>
       </c>
     </row>
   </sheetData>

--- a/DB/DB임시파일2.xlsx
+++ b/DB/DB임시파일2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5385" tabRatio="602" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5385" tabRatio="602" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="회원정보" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1398">
   <si>
     <t>회원번호</t>
   </si>
@@ -5209,6 +5209,38 @@
   </si>
   <si>
     <t>제3회 분기별 공모전)) 16강 대진 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8751,8 +8783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11867,10 +11899,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11922,6 +11954,206 @@
         <v>271</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43621</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11930,10 +12162,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11986,9 +12218,270 @@
         <v>493</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43618</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D6">
+        <v>19990</v>
+      </c>
+      <c r="E6">
+        <v>19990</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D8">
+        <v>19990</v>
+      </c>
+      <c r="E8">
+        <v>199900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D9">
+        <v>60000</v>
+      </c>
+      <c r="E9">
+        <v>6000000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43622</v>
+      </c>
+      <c r="D10">
+        <v>3300</v>
+      </c>
+      <c r="E10">
+        <v>330000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D11">
+        <v>20090</v>
+      </c>
+      <c r="E11">
+        <v>2009000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D13">
+        <v>1700</v>
+      </c>
+      <c r="E13">
+        <v>170000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43627</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>1000000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43647</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D16">
+        <v>5600</v>
+      </c>
+      <c r="E16">
+        <v>560000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1392</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
